--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565081.833381707</v>
+        <v>-567594.2417630721</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>272.2055943652849</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.79430053648</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>15.55581865002932</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>11.76657601137764</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>68.48675297563707</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>48.85589892223723</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>86.00367385394819</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>243.7491467488908</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>54.0125315406075</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
-        <v>96.1640274678893</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>184.6448939492135</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.3353942071046</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>153.7262458385333</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.82351723687695</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503976</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>285.4827669718939</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>70.58974991479204</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>84.8780074336928</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428033</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>125.2193560244677</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.43007309478924</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.1630968205461</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>98.42683230404793</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>161.0175085755505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>23.62554568141267</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.74133133758728</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.006892987834117</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1519.109083729354</v>
+        <v>1964.273285499502</v>
       </c>
       <c r="C2" t="n">
-        <v>1150.146566788942</v>
+        <v>1595.31076855909</v>
       </c>
       <c r="D2" t="n">
-        <v>791.8808681821918</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653545</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392465</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="Y2" t="n">
-        <v>1519.109083729354</v>
+        <v>2350.873125563623</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686082</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548192</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269123</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1911.581599957151</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1719.895715783977</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1708.010285469454</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U4" t="n">
-        <v>1708.010285469454</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V4" t="n">
-        <v>1453.325797263567</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W4" t="n">
-        <v>1163.908627226606</v>
+        <v>1381.664906092902</v>
       </c>
       <c r="X4" t="n">
-        <v>935.9190763285891</v>
+        <v>1153.675355194885</v>
       </c>
       <c r="Y4" t="n">
-        <v>715.126497185059</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.004869410821</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1648.004869410821</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.73917080407</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>903.9509182058259</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>492.9650134162184</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4568,7 +4568,7 @@
         <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2609.016021139989</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474942</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4644,10 +4644,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158137</v>
@@ -4656,16 +4656,16 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>879.9099329995263</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>879.9099329995263</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>729.7932935871905</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>581.8802000047974</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>434.990252506887</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>267.287415881606</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>121.0702290994637</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581906</v>
@@ -4741,7 +4741,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1740.328709565325</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1740.328709565325</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.225842690969</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="V7" t="n">
-        <v>1196.541354485082</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W7" t="n">
-        <v>907.124184448121</v>
+        <v>879.9099329995263</v>
       </c>
       <c r="X7" t="n">
-        <v>679.1346335501037</v>
+        <v>879.9099329995263</v>
       </c>
       <c r="Y7" t="n">
-        <v>679.1346335501037</v>
+        <v>879.9099329995263</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,13 +4817,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,7 +4832,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
         <v>2866.09759726723</v>
@@ -4841,13 +4841,13 @@
         <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653545</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>782.183293106819</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>613.2471101789121</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>613.2471101789121</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>465.3340165965189</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>465.3340165965189</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.821308835076</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>963.8317579370587</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.8317579370587</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>701.3802915967232</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>551.2636521843874</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>403.3505586019943</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>403.3505586019943</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.917417812163</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270429</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>335.9629114732377</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>335.9629114732377</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.345997432834</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>923.4098145049275</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>773.2931750925917</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>625.3800815101986</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.776592304621</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.787041406604</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.994462263074</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6458,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6479,10 +6479,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>1056.376371837086</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>887.4401889091791</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>737.3235494968434</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>589.4104559144503</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>442.5205084165399</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>275.3244091314198</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>1238.024836667326</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2404.800122633203</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2221.945288288107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192923</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111748</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107584</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,19 +7354,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7409,13 +7409,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384014</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,19 +7643,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,37 +7819,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82.47744725539809</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.44363811957356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>73.37633402001799</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>169.7287544298576</v>
       </c>
     </row>
     <row r="5">
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-9.766525984932414e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>146.0084629450603</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823024</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365925</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.40545032729</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7017074173502351</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>75.84421273177713</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>80.64613085857604</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194356</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>126.9182872993603</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>66.09406519747961</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>6.257951202385101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>41.86788054217595</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.63391537253441</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-5.329070518200751e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1017147.261359584</v>
+        <v>1017147.261359583</v>
       </c>
     </row>
     <row r="3">
@@ -26317,43 +26317,43 @@
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="E2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="F2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="J2" t="n">
         <v>262322.644899252</v>
       </c>
-      <c r="J2" t="n">
-        <v>262322.6448992519</v>
-      </c>
       <c r="K2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.047851940773399e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.462967702536844e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26446.24223584547</v>
+        <v>26446.24223584546</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319392</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493613</v>
       </c>
       <c r="O4" t="n">
         <v>21597.66737493622</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234065.284748933</v>
+        <v>-1234355.891913778</v>
       </c>
       <c r="C6" t="n">
-        <v>66110.79176130486</v>
+        <v>66110.79176130403</v>
       </c>
       <c r="D6" t="n">
-        <v>66110.79176130486</v>
+        <v>66110.7917613053</v>
       </c>
       <c r="E6" t="n">
-        <v>-177819.1548438529</v>
+        <v>-177853.8927692893</v>
       </c>
       <c r="F6" t="n">
-        <v>147593.3069635021</v>
+        <v>147558.569038067</v>
       </c>
       <c r="G6" t="n">
-        <v>147593.3069635021</v>
+        <v>147558.5690380662</v>
       </c>
       <c r="H6" t="n">
-        <v>147593.3069635021</v>
+        <v>147558.5690380666</v>
       </c>
       <c r="I6" t="n">
-        <v>147593.3069635021</v>
+        <v>147558.5690380663</v>
       </c>
       <c r="J6" t="n">
-        <v>-69937.89543377544</v>
+        <v>-69972.63335921096</v>
       </c>
       <c r="K6" t="n">
-        <v>147593.3069635021</v>
+        <v>147558.5690380663</v>
       </c>
       <c r="L6" t="n">
-        <v>147593.306963502</v>
+        <v>147558.5690380664</v>
       </c>
       <c r="M6" t="n">
-        <v>62538.27902799028</v>
+        <v>62503.5411025545</v>
       </c>
       <c r="N6" t="n">
-        <v>122649.073983409</v>
+        <v>122649.0739834089</v>
       </c>
       <c r="O6" t="n">
-        <v>142076.7919770407</v>
+        <v>142076.7919770406</v>
       </c>
       <c r="P6" t="n">
-        <v>142076.7919770407</v>
+        <v>142076.7919770404</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>207.7823732647916</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>218.0362453609539</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>324.9180517995053</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>125.9819539295782</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>42.33988886923056</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>93.6049978635526</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>180.6279978217941</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.902544448949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12.29956242049496</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>94.35543628911083</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
@@ -31288,31 +31288,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
         <v>19.17787942451121</v>
@@ -31361,43 +31361,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,19 +31440,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883116</v>
@@ -31467,13 +31467,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>390.1398273256862</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067264</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701982</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>256.165419911356</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998972</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236320508</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
